--- a/adder/data.xlsx
+++ b/adder/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\文件\學校\專題\adder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE68BD-5CA9-45D2-8BB0-222E7CCF0641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7169CB8-F93D-4FF6-A59A-D050E4670150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all 0.0002" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>rand6_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand6_swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"(-1,0,2),(-2,0,1)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rand8_swap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2088,6 +2100,458 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'all 0.0002 (2)'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rand6_swap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97030000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0801-4D97-9162-6D945D3E2A4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'all 0.0002 (2)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rand8_swap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0801-4D97-9162-6D945D3E2A4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'all 0.0002 (2)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rand6_swap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98660000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97719999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0801-4D97-9162-6D945D3E2A4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'all 0.0002 (2)'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rand8_swap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'all 0.0002 (2)'!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98009999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0801-4D97-9162-6D945D3E2A4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2156,7 +2620,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.8"/>
+          <c:min val="0.94000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2236,6 +2700,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3445,16 +3912,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>498231</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344366</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>446435</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>36126</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>227136</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>43454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3967,15 +4434,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DA595B-3850-42C4-9486-FAFA6D6033E4}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K2" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3997,8 +4471,20 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4023,8 +4509,20 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4049,8 +4547,20 @@
       <c r="H3">
         <v>0.98780000000000001</v>
       </c>
+      <c r="I3">
+        <v>0.9889</v>
+      </c>
+      <c r="J3">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="L3">
+        <v>0.98750000000000004</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
@@ -4075,8 +4585,20 @@
       <c r="H4">
         <v>0.98480000000000001</v>
       </c>
+      <c r="I4">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="L4">
+        <v>0.99039999999999995</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>600</v>
       </c>
@@ -4101,8 +4623,20 @@
       <c r="H5">
         <v>0.98360000000000003</v>
       </c>
+      <c r="I5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="K5">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="L5">
+        <v>0.98429999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>800</v>
       </c>
@@ -4127,8 +4661,20 @@
       <c r="H6">
         <v>0.98119999999999996</v>
       </c>
+      <c r="I6">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.9879</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -4153,8 +4699,20 @@
       <c r="H7">
         <v>0.97929999999999995</v>
       </c>
+      <c r="I7">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="J7">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.98450000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1200</v>
       </c>
@@ -4179,8 +4737,20 @@
       <c r="H8">
         <v>0.97629999999999995</v>
       </c>
+      <c r="I8">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="J8">
+        <v>0.9788</v>
+      </c>
+      <c r="K8">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.98839999999999995</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1400</v>
       </c>
@@ -4205,8 +4775,20 @@
       <c r="H9">
         <v>0.97250000000000003</v>
       </c>
+      <c r="I9">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.9819</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1600</v>
       </c>
@@ -4231,8 +4813,20 @@
       <c r="H10">
         <v>0.9738</v>
       </c>
+      <c r="I10">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="J10">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.98619999999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1800</v>
       </c>
@@ -4256,6 +4850,29 @@
       </c>
       <c r="H11">
         <v>0.96609999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.9718</v>
+      </c>
+      <c r="K11">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.98009999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/adder/data.xlsx
+++ b/adder/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\文件\學校\專題\adder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\文件\學校\Project_QEC\adder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7169CB8-F93D-4FF6-A59A-D050E4670150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27E5EAF-930B-44AD-B31A-2BB66EF3A13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all 0.0002" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>rand8_swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swap rate0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3912,10 +3916,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>344366</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>827942</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -4434,17 +4438,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DA595B-3850-42C4-9486-FAFA6D6033E4}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
@@ -4875,6 +4879,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
